--- a/WinFormsApp2/bin/Debug/net5.0-windows/Contents.xlsx
+++ b/WinFormsApp2/bin/Debug/net5.0-windows/Contents.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\桑原さんソフト\GitHub\sample\WinFormsApp2\bin\Debug\net5.0-windows\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87F45AE7-78C6-4526-B21B-3EFD031AFA6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{922121C9-D07F-491C-AF43-7C73BB1B17F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8055" yWindow="2385" windowWidth="19215" windowHeight="15015" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1785" yWindow="2610" windowWidth="26220" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
@@ -536,6 +536,50 @@
         <a:xfrm>
           <a:off x="4238625" y="7740205"/>
           <a:ext cx="3105930" cy="1804297"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3905774</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1905251</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="図 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{401E6E54-0D75-4C92-9CBE-960ABC753672}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10668000" y="3314700"/>
+          <a:ext cx="3753374" cy="1800476"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -850,14 +894,15 @@
   </sheetPr>
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="47.42578125" customWidth="1"/>
     <col min="3" max="3" width="101.140625" customWidth="1"/>
+    <col min="4" max="4" width="67.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="120.75" customHeight="1" x14ac:dyDescent="0.2">
